--- a/results/general_sumary.xlsx
+++ b/results/general_sumary.xlsx
@@ -193,7 +193,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
+      <selection pane="topLeft" activeCell="F12" activeCellId="0" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -252,7 +252,7 @@
         <v>119</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E3" s="0" t="s">
         <v>8</v>
@@ -265,11 +265,11 @@
         <v>0.177189882834294</v>
       </c>
       <c r="H3" s="0" t="n">
-        <v>10170</v>
+        <v>10236</v>
       </c>
       <c r="I3" s="0" t="n">
         <f aca="false">H3/C4</f>
-        <v>0.47706163805235</v>
+        <v>0.47470203589482</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -280,7 +280,7 @@
         <v>21508</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>21318</v>
+        <v>21563</v>
       </c>
       <c r="E4" s="0" t="s">
         <v>10</v>
@@ -293,11 +293,11 @@
         <v>4.77891947182444</v>
       </c>
       <c r="H4" s="0" t="n">
-        <v>67397</v>
+        <v>67943</v>
       </c>
       <c r="I4" s="0" t="n">
         <f aca="false">H4/C4</f>
-        <v>3.16150670794634</v>
+        <v>3.150906645643</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -308,7 +308,7 @@
         <v>2314522</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>2396885</v>
+        <v>2455766</v>
       </c>
       <c r="E5" s="0" t="s">
         <v>12</v>
@@ -321,11 +321,11 @@
         <v>4.99888413613539</v>
       </c>
       <c r="H5" s="0" t="n">
-        <v>113753</v>
+        <v>114817</v>
       </c>
       <c r="I5" s="0" t="n">
         <f aca="false">H5/C4</f>
-        <v>5.33600713012478</v>
+        <v>5.32472290497612</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -340,11 +340,11 @@
         <v>1.13422912404687</v>
       </c>
       <c r="H6" s="0" t="n">
-        <v>23357</v>
+        <v>23582</v>
       </c>
       <c r="I6" s="0" t="n">
         <f aca="false">H6/C4</f>
-        <v>1.09564687118867</v>
+        <v>1.09363261141771</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -359,11 +359,11 @@
         <v>2.31509205876883</v>
       </c>
       <c r="H7" s="0" t="n">
-        <v>23797</v>
+        <v>24140</v>
       </c>
       <c r="I7" s="0" t="n">
         <f aca="false">H7/C4</f>
-        <v>1.11628670606999</v>
+        <v>1.11951027222557</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -378,11 +378,11 @@
         <v>0.189324902361912</v>
       </c>
       <c r="H8" s="0" t="n">
-        <v>10196</v>
+        <v>10337</v>
       </c>
       <c r="I8" s="0" t="n">
         <f aca="false">H8/C4</f>
-        <v>0.478281264658974</v>
+        <v>0.479385985252516</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -401,7 +401,7 @@
       </c>
       <c r="I9" s="0" t="n">
         <f aca="false">H9/C4</f>
-        <v>3.32906464021015</v>
+        <v>3.29123962342902</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -416,11 +416,11 @@
         <v>1.58996652408406</v>
       </c>
       <c r="H10" s="0" t="n">
-        <v>62222</v>
+        <v>63944</v>
       </c>
       <c r="I10" s="0" t="n">
         <f aca="false">H10/C4</f>
-        <v>2.91875410451262</v>
+        <v>2.96545007651996</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -435,11 +435,11 @@
         <v>8.86451552910545</v>
       </c>
       <c r="H11" s="0" t="n">
-        <v>190052</v>
+        <v>192541</v>
       </c>
       <c r="I11" s="0" t="n">
         <f aca="false">H11/C4</f>
-        <v>8.91509522469275</v>
+        <v>8.9292306265362</v>
       </c>
     </row>
   </sheetData>
